--- a/AMCX_DCF.xlsx
+++ b/AMCX_DCF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eligooch/Desktop/git/stock_pitcher_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0F3A82-5145-0846-AD30-CA09A5A3F899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B9473D-36DC-F94D-8ECF-C79B76F2D100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4653,8 +4653,8 @@
   </sheetPr>
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H40" activeCellId="1" sqref="I37 H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4799,7 +4799,7 @@
         <v>55800000</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" ref="I14:I16" si="0">D16-G16-H16</f>
+        <f t="shared" ref="I16" si="0">D16-G16-H16</f>
         <v>203400000</v>
       </c>
       <c r="K16" s="21"/>
@@ -5025,8 +5025,8 @@
         <v>34</v>
       </c>
       <c r="I36" s="30">
-        <f>(I32/I22)^(1/6)-1</f>
-        <v>0.13431030444895042</v>
+        <f>(I32/I24)^(1/5)-1</f>
+        <v>9.6026231138408136E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
